--- a/dados_produtos.xlsx
+++ b/dados_produtos.xlsx
@@ -2,29 +2,47 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fa1c4799ed3681a/Área de Trabalho/Projeto-Final-Analise-de-Avaliacoes-de-Consumidores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_FA3BD1081F4B1647423DEFD6744AC9131303C7F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7784246-DD50-4706-9CDD-B3EFE5C25AF6}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_FA3BD1081F4B1647423DEFD6744AC9131303C7F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ACF4223-D7AC-4593-BD16-E58EFCD16047}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de Consumidores" sheetId="1" r:id="rId1"/>
     <sheet name="TabelaDinamica" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_avaliacao">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_nome">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_preco">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
   <si>
     <t>nome</t>
   </si>
@@ -47,36 +65,24 @@
     <t>88,78</t>
   </si>
   <si>
-    <t xml:space="preserve">9 </t>
-  </si>
-  <si>
     <t>['Positivo - boa qualidade do material', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto de estética agradável, outros.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Positivo - boa qualidade do material, entrega conforme o anunciado.', 'Positivo - Boa qualidade', 'Positivo - boa qualidade do material, entrega demorada', 'Negativo - preço excelente, entrega demorada.']</t>
   </si>
   <si>
     <t>Sapatênis Casual Versales Masculino em Material Nobre - Café</t>
   </si>
   <si>
-    <t xml:space="preserve">4 </t>
-  </si>
-  <si>
     <t>['Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - entrega rápida, produto de estética agradável.', 'Positivo - entrega rápida.']</t>
   </si>
   <si>
     <t>Sapatênis Casual Versales Masculino - Preto</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>['Positivo - produto de estética agradável, produto confortável.', 'Positivo - boa qualidade do material, produto confortável, produto de estética agradável.', 'Positivo - produto confortável, boa qualidade do material, ótimo custo benefício', 'Positivo - boa qualidade do material, produto confortável, bom custo-benefício.', 'Positivo - Boa qualidade do material, entrega com erro na cor.', 'Positivo - Boa qualidade do material, produto confortável, produto de estética agradável, atendeu às expectativas.', 'Positivo - produto de estética agradável, produto confortável, boa qualidade do material, outros.', 'Positivo - produto de estética agradável, produto confortável', 'Positivo - Boa qualidade do material, entrega rápida', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável.']</t>
   </si>
   <si>
     <t>Sapatênis Casual Versales Masculino - Capuccino</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>['Positivo - produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Positivo - produto de estética agradável, produto confortável.', 'Neutro - produto desconfortável, produto de estética desagradável.', 'Positivo - Produto de estética agradável, produto confortável', 'Positivo - boa qualidade do material, produto de estética agradável.', 'Positivo - Boa qualidade do material, entrega rápida', 'Positivo - confortável, estética agradável.', 'Positivo - Boa qualidade do material, produto de estética agradável, produto confortável.', 'Classificação: Positiva - Produto confortável.']</t>
   </si>
   <si>
@@ -95,9 +101,6 @@
     <t>Sapato Derby Tobin Camurça em Atacador - Marinho</t>
   </si>
   <si>
-    <t xml:space="preserve">3 </t>
-  </si>
-  <si>
     <t>['Positivo - Outros', 'Positivo - Produto de estética agradável.']</t>
   </si>
   <si>
@@ -107,18 +110,12 @@
     <t>62,10</t>
   </si>
   <si>
-    <t xml:space="preserve">5 </t>
-  </si>
-  <si>
     <t>['Neutra - [má qualidade de material, produto de estética desagradável, outros]', 'Positivo - produto confortável.', 'Positivo - Produto confortável.', 'Positivo - boa qualidade do material, bom preço, recomendação de compra.', 'Positivo - Preço acessível, bom custo-benefício.']</t>
   </si>
   <si>
     <t>Sapatenis Masculino Versales Calce Facil Bordo 189</t>
   </si>
   <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>89,91</t>
   </si>
   <si>
-    <t xml:space="preserve">1 </t>
-  </si>
-  <si>
     <t>['Positivo - Boa qualidade do material.']</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Sapatenis Masculino Versales Calce Facil Vermelho 189</t>
   </si>
   <si>
-    <t xml:space="preserve">7 </t>
-  </si>
-  <si>
     <t>['Positivo - Boa qualidade do material.', 'Positivo - entrega rápida, boa qualidade do material, erro no pedido.', 'Positivo - Confortável, produto de estética agradável', 'Positivo - Confortável, produto de estética agradável.', 'Classificação: Positivo - Confortável, prático para calçar.', 'Negativo - má qualidade de material, outros.', 'Neutro - má qualidade de material, outros.']</t>
   </si>
   <si>
@@ -155,27 +146,18 @@
     <t>69,91</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>['Positivo - Boa qualidade do material, produto de estética agradável.', 'Neutro - outros.', 'Positivo - Boa qualidade do material, produto confortável, produto de estética agradável.', 'Classificação: Positivo - produto confortável.', 'Positivo - confortável, satisfação', 'Positivo - Boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - Boa qualidade do material, produto de estética agradável.', 'Neutro - outros.', 'Positivo - produto de estética agradável, produto confortável.', 'Positivo - Confortável, produto de estética agradável, boa qualidade do material', 'Positivo - Boa qualidade do material, produto de estética agradável, outros.', 'Positivo - entrega sem danificar o produto, boa qualidade do material.', 'Neutro - Outros.', 'Classificação: Positivo - Boa qualidade do material, entrega rápida.']</t>
   </si>
   <si>
     <t>Sapatenis Masculino Versales Calce Facil Café 189</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>['Positivo - boa qualidade do material, produto confortável, combina com bermuda.', 'Classificação: Positivo - Produto de estética agradável, produto confortável.', 'Positivo - Produto prático e de boa qualidade.', 'Positivo - produto de estética agradável, produto confortável.', 'Positivo - outros', 'Positivo - boa qualidade do material, atendeu as necessidades, recomendação.', 'Positivo - confortável, atendeu as necessidades, recomendo.', 'Positivo - Boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, recomendação aos outros.', 'Positivo - entrega rápida, boa qualidade do material.', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável, outros.', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável, entrega rápida.', 'Positivo - boa qualidade do material, produto de estética agradável, confortável.', 'Positivo - Produto confortável.']</t>
   </si>
   <si>
     <t>Sapatenis Masculino Versales Calce Facil Azul 189</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>['Positivo - produto de estética agradável, outros', 'Positivo - boa qualidade do material, produto de estética agradável.', 'Positivo - entrega rápida, entrega sem danificar o produto', 'Positivo - confortável, boa qualidade do material', 'Positivo - Boa qualidade do material, preço acessível, entrega rápida', 'Positivo - confortável, outros', 'Positivo - Boa qualidade do material, produto de estética agradável', 'Positivo - Boa qualidade do material, atendimento excelente, troca de tamanho realizada sem problemas.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Neutro - Produto de estética agradável.', 'Positivo - produto versátil, design diferenciado, boa qualidade do material, produto desconfortável', 'Positivo - boa qualidade do material, produto de estética agradável, preço acessível.', 'Positivo - Confortável, produto de estética agradável, ótimo custo benefício.', 'Classificação: positivo - entrega rápida, boa qualidade do material, confiável.']</t>
   </si>
   <si>
@@ -203,9 +185,6 @@
     <t>Sapatenis Masculino Slip on Versales Calce Facil Gelo</t>
   </si>
   <si>
-    <t xml:space="preserve">8 </t>
-  </si>
-  <si>
     <t>['Positivo - produto de estética agradável, produto confortável', 'Positivo - Boa qualidade do material, produto confortável.', 'Positivo - entrega rápida, produto confortável, primeira compra.', 'Neutro - outros.', 'Positivo - Boa qualidade do material, preço acessível, entrega rápida.', 'Positivo - boa qualidade do material, produto confortável, outros.', 'Positivo - confortável, produto de estética agradável.', 'Positivo - boa qualidade do material, produto confortável.']</t>
   </si>
   <si>
@@ -213,9 +192,6 @@
   </si>
   <si>
     <t>134,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 </t>
   </si>
   <si>
     <t>['Positivo - Boa qualidade do material, produto de estética agradável, produto confortável, entrega rápida.', 'Positivo - Boa qualidade do material, produto confortável.', 'Positivo - produto de estética agradável, boa qualidade do material, produto desconfortável.', 'Neutro - confortável.']</t>
@@ -439,12 +415,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -475,16 +457,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,10 +509,40 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[dados_produtos.xlsx]TabelaDinamica!Tabela dinâmica1</c:name>
-    <c:fmtId val="3"/>
+    <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Média de avaliação por</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> produto</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -614,6 +630,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -970,7 +1098,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-74A8-438A-9B17-ABE27554A20B}"/>
+              <c16:uniqueId val="{00000000-0966-4E8F-A3AB-604DA93B2282}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1208,10 +1336,35 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[dados_produtos.xlsx]TabelaDinamica!Tabela dinâmica2</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Média de Avaliações com base no preço</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1299,6 +1452,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1409,7 +1674,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBD5-4580-B264-6A2E0C496834}"/>
+              <c16:uniqueId val="{00000000-A36F-4598-B4C0-F288AFB6CBFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1647,10 +1912,35 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[dados_produtos.xlsx]TabelaDinamica!Tabela dinâmica3</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Qaantidade de Avaliações com BAse no preço</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1738,6 +2028,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1848,7 +2250,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5E1-4C23-A696-A5E574D763F0}"/>
+              <c16:uniqueId val="{00000000-D9CB-4A92-B9B5-2457AC8444C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3704,27 +4106,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>384967</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>49210</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185740</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2092B43-0B35-9EDF-4DE4-C2D58A7AB053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779F3216-3FD2-42B9-9EDC-52F5DB48A283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3740,27 +4144,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1178717</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638967</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>109535</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810021A8-9389-E453-754A-3A366848A3F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DF93A2-1936-4D79-8D8A-F56E7AD155BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3776,27 +4182,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1266029</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>104772</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>218610</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>78176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>75404</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>109535</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>256710</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9CA055-A282-9757-566D-0310A0D6FABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7EBE0B-2BAB-469C-B9A1-AD275B6C8F3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3810,7 +4218,245 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>483568</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>360905</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63886</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="preco">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFC9EEC-01B1-F3EF-C22E-DCA6C30A2471}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="preco"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1780026" y="3543590"/>
+              <a:ext cx="1822025" cy="2771078"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338254</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>62771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215594</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66256</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="avaliacao">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A80F78-0663-2676-3C6D-86315CC65736}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="avaliacao"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4875858" y="3634646"/>
+              <a:ext cx="1822028" cy="2503798"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411936</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>636595</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114997</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="nome">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB67ABFF-C78A-D379-49EC-8EBC77687627}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="nome"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8190686" y="3683387"/>
+              <a:ext cx="5410492" cy="2503798"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3889,7 +4535,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="avaliacao" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8" maxValue="5" count="9">
+        <n v="4.7"/>
+        <n v="5"/>
+        <n v="4.9000000000000004"/>
+        <n v="4.8"/>
+        <n v="4.5"/>
+        <n v="4"/>
+        <n v="4.4000000000000004"/>
+        <n v="3.8"/>
+        <n v="4.0999999999999996"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="quantidade-de-avaliacoes" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="17" count="23">
@@ -3924,7 +4580,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1955277039"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3935,357 +4591,357 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="0"/>
     <s v="['Positivo - boa qualidade do material', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto de estética agradável, outros.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Positivo - boa qualidade do material, entrega conforme o anunciado.', 'Positivo - Boa qualidade', 'Positivo - boa qualidade do material, entrega demorada', 'Negativo - preço excelente, entrega demorada.']"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="['Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - entrega rápida, produto de estética agradável.', 'Positivo - entrega rápida.']"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="4.9000000000000004"/>
+    <x v="2"/>
     <x v="2"/>
     <s v="['Positivo - produto de estética agradável, produto confortável.', 'Positivo - boa qualidade do material, produto confortável, produto de estética agradável.', 'Positivo - produto confortável, boa qualidade do material, ótimo custo benefício', 'Positivo - boa qualidade do material, produto confortável, bom custo-benefício.', 'Positivo - Boa qualidade do material, entrega com erro na cor.', 'Positivo - Boa qualidade do material, produto confortável, produto de estética agradável, atendeu às expectativas.', 'Positivo - produto de estética agradável, produto confortável, boa qualidade do material, outros.', 'Positivo - produto de estética agradável, produto confortável', 'Positivo - Boa qualidade do material, entrega rápida', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável.']"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="4.9000000000000004"/>
+    <x v="2"/>
     <x v="3"/>
     <s v="['Positivo - produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Positivo - produto de estética agradável, produto confortável.', 'Neutro - produto desconfortável, produto de estética desagradável.', 'Positivo - Produto de estética agradável, produto confortável', 'Positivo - boa qualidade do material, produto de estética agradável.', 'Positivo - Boa qualidade do material, entrega rápida', 'Positivo - confortável, estética agradável.', 'Positivo - Boa qualidade do material, produto de estética agradável, produto confortável.', 'Classificação: Positiva - Produto confortável.']"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="4.9000000000000004"/>
+    <x v="2"/>
     <x v="0"/>
     <s v="['Neutro - [boa qualidade do material, produto de estética agradável]', 'Positivo - boa qualidade.', 'Positivo - Produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto confortável.', 'Positivo - Confortável, produto de estética agradável', 'Positivo - boa qualidade do material, ótima relação custo benefício.', 'Positivo - Boa qualidade do material, entrega rápida, outros.']"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <n v="4.8"/>
+    <x v="3"/>
     <x v="0"/>
     <s v="['[classificação] - [positivo, boa qualidade do material]', 'Positivo - Produto conforme publicidade, sem problemas na compra, atendeu expectativas.', 'Positivo - Boa qualidade do material, produto de estética agradável', 'Neutro - outros', 'Positivo - boa qualidade do material, produto de estética agradável.', 'Neutro - outros', '[positivo] - [produto confortável]', 'Positivo - Satisfação com o produto', 'Neutro - produto desconfortável.']"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="4"/>
     <s v="['Positivo - Outros', 'Positivo - Produto de estética agradável.']"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="5"/>
     <s v="['Neutra - [má qualidade de material, produto de estética desagradável, outros]', 'Positivo - produto confortável.', 'Positivo - Produto confortável.', 'Positivo - boa qualidade do material, bom preço, recomendação de compra.', 'Positivo - Preço acessível, bom custo-benefício.']"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="6"/>
     <s v="[]"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="7"/>
     <s v="['Positivo - Boa qualidade do material.']"/>
   </r>
   <r>
     <x v="10"/>
     <x v="2"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="7"/>
     <s v="['Negativo - Produto desconfortável, entrega demorada.']"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="8"/>
     <s v="['Positivo - Boa qualidade do material.', 'Positivo - entrega rápida, boa qualidade do material, erro no pedido.', 'Positivo - Confortável, produto de estética agradável', 'Positivo - Confortável, produto de estética agradável.', 'Classificação: Positivo - Confortável, prático para calçar.', 'Negativo - má qualidade de material, outros.', 'Neutro - má qualidade de material, outros.']"/>
   </r>
   <r>
     <x v="12"/>
     <x v="3"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="9"/>
     <s v="['Positivo - Boa qualidade do material, produto de estética agradável.', 'Neutro - outros.', 'Positivo - Boa qualidade do material, produto confortável, produto de estética agradável.', 'Classificação: Positivo - produto confortável.', 'Positivo - confortável, satisfação', 'Positivo - Boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - Boa qualidade do material, produto de estética agradável.', 'Neutro - outros.', 'Positivo - produto de estética agradável, produto confortável.', 'Positivo - Confortável, produto de estética agradável, boa qualidade do material', 'Positivo - Boa qualidade do material, produto de estética agradável, outros.', 'Positivo - entrega sem danificar o produto, boa qualidade do material.', 'Neutro - Outros.', 'Classificação: Positivo - Boa qualidade do material, entrega rápida.']"/>
   </r>
   <r>
     <x v="13"/>
     <x v="3"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="10"/>
     <s v="['Positivo - boa qualidade do material, produto confortável, combina com bermuda.', 'Classificação: Positivo - Produto de estética agradável, produto confortável.', 'Positivo - Produto prático e de boa qualidade.', 'Positivo - produto de estética agradável, produto confortável.', 'Positivo - outros', 'Positivo - boa qualidade do material, atendeu as necessidades, recomendação.', 'Positivo - confortável, atendeu as necessidades, recomendo.', 'Positivo - Boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - Boa qualidade do material, recomendação aos outros.', 'Positivo - entrega rápida, boa qualidade do material.', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável, outros.', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável, entrega rápida.', 'Positivo - boa qualidade do material, produto de estética agradável, confortável.', 'Positivo - Produto confortável.']"/>
   </r>
   <r>
     <x v="14"/>
     <x v="3"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="11"/>
     <s v="['Positivo - produto de estética agradável, outros', 'Positivo - boa qualidade do material, produto de estética agradável.', 'Positivo - entrega rápida, entrega sem danificar o produto', 'Positivo - confortável, boa qualidade do material', 'Positivo - Boa qualidade do material, preço acessível, entrega rápida', 'Positivo - confortável, outros', 'Positivo - Boa qualidade do material, produto de estética agradável', 'Positivo - Boa qualidade do material, atendimento excelente, troca de tamanho realizada sem problemas.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Neutro - Produto de estética agradável.', 'Positivo - produto versátil, design diferenciado, boa qualidade do material, produto desconfortável', 'Positivo - boa qualidade do material, produto de estética agradável, preço acessível.', 'Positivo - Confortável, produto de estética agradável, ótimo custo benefício.', 'Classificação: positivo - entrega rápida, boa qualidade do material, confiável.']"/>
   </r>
   <r>
     <x v="15"/>
     <x v="3"/>
-    <n v="4.9000000000000004"/>
+    <x v="2"/>
     <x v="9"/>
     <s v="['Neutro - outros.', 'Positivo - Confortável, estética agradável.', 'Positivo - confortável.', 'Positivo - entrega rápida, suporte para troca, satisfeito com o produto.', 'Positivo - Boa qualidade do material, produto confortável, outros.', 'Positivo - Boa qualidade do material, produto de estética agradável', 'Positivo - Estética agradável', 'Positivo - Boa qualidade do material', 'Positivo - entrega rápida, confortável, boa qualidade do material.', 'Positivo - boa qualidade do material, entrega rápida.', 'Positivo - Outros', 'Positivo - entrega rápida, produto confortável, produto de estética agradável.', 'Positivo - Boa qualidade do material, produto confortável, produto de estética agradável.', 'Positivo - Boa qualidade do material, preço bom, entrega rápida.', 'Positivo - entrega rápida, produto de estética agradável, produto confortável.']"/>
   </r>
   <r>
     <x v="16"/>
     <x v="4"/>
-    <n v="4.8"/>
+    <x v="3"/>
     <x v="5"/>
     <s v="['Positivo - produto de estética agradável, atendeu a expectativa.', 'Positivo - Boa qualidade do material, entrega rápida.', 'Positivo - boa qualidade do material, produto confortável.', 'Positivo - Boa qualidade do material, entrega rápida']"/>
   </r>
   <r>
     <x v="17"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="6"/>
     <s v="['Neutro - Outros.']"/>
   </r>
   <r>
     <x v="18"/>
     <x v="4"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="12"/>
     <s v="['Positivo - produto de estética agradável, produto confortável', 'Positivo - Boa qualidade do material, produto confortável.', 'Positivo - entrega rápida, produto confortável, primeira compra.', 'Neutro - outros.', 'Positivo - Boa qualidade do material, preço acessível, entrega rápida.', 'Positivo - boa qualidade do material, produto confortável, outros.', 'Positivo - confortável, produto de estética agradável.', 'Positivo - boa qualidade do material, produto confortável.']"/>
   </r>
   <r>
     <x v="19"/>
     <x v="5"/>
-    <n v="4.5"/>
+    <x v="4"/>
     <x v="13"/>
     <s v="['Positivo - Boa qualidade do material, produto de estética agradável, produto confortável, entrega rápida.', 'Positivo - Boa qualidade do material, produto confortável.', 'Positivo - produto de estética agradável, boa qualidade do material, produto desconfortável.', 'Neutro - confortável.']"/>
   </r>
   <r>
     <x v="20"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="13"/>
     <s v="['Positivo - boa qualidade do material, produto confortável, produto de estética agradável', 'Neutro - outros', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável.', 'Neutro - outros.', 'Positivo - Boa qualidade do material, produto de estética agradável, outros.']"/>
   </r>
   <r>
     <x v="21"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="5"/>
     <x v="6"/>
     <s v="['Negativo - produto desconfortável.']"/>
   </r>
   <r>
     <x v="22"/>
     <x v="6"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - boa qualidade do material, produto confortável, recomendação.']"/>
   </r>
   <r>
     <x v="23"/>
     <x v="6"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="15"/>
     <s v="['Neutro - outros.', 'Positivo - Produto de estética agradável, confiante de que irá gostar.', 'Neutra - outros.', 'Positivo - Produto confortável.', 'Positivo - boa qualidade do material, produto de estética agradável, outros.']"/>
   </r>
   <r>
     <x v="24"/>
     <x v="6"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="15"/>
     <s v="['Positivo - Boa qualidade do material, confortável, entrega rápida.', 'Positivo - Boa qualidade do material.', 'Positivo - produto de estética agradável, produto confortável.', 'Positivo - Entrega rápida.', 'Positivo - Estética agradável, confortável']"/>
   </r>
   <r>
     <x v="25"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="16"/>
     <s v="['Positivo - boa qualidade do material, produto confortável, produto de estética agradável.', 'Positivo - confortável, recomendação.']"/>
   </r>
   <r>
     <x v="26"/>
     <x v="7"/>
-    <n v="4.5"/>
+    <x v="4"/>
     <x v="16"/>
     <s v="[]"/>
   </r>
   <r>
     <x v="27"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - confortável, outros']"/>
   </r>
   <r>
     <x v="28"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="16"/>
     <s v="['Positivo - boa qualidade do material, produto confortável.', 'Positivo - boa qualidade do material, produto confortável.']"/>
   </r>
   <r>
     <x v="29"/>
     <x v="7"/>
-    <n v="4.5"/>
+    <x v="4"/>
     <x v="16"/>
     <s v="[]"/>
   </r>
   <r>
     <x v="30"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - boa qualidade do material, produto de estética agradável']"/>
   </r>
   <r>
     <x v="31"/>
     <x v="6"/>
-    <n v="4.5"/>
+    <x v="4"/>
     <x v="16"/>
     <s v="['Neutro - bom investimento, durabilidade não tão grande.', 'Neutro - outros.']"/>
   </r>
   <r>
     <x v="32"/>
     <x v="6"/>
-    <n v="4.4000000000000004"/>
+    <x v="6"/>
     <x v="15"/>
     <s v="['Positivo - boa qualidade do material, preço acessível', 'Positivo - Boa qualidade do material, produto desconfortável, entrega rápida, produto leve, resistente, acabamento sem rebarbas, custo/benefício.', 'Positivo - Boa qualidade do material', 'Negativo - produto de estética agradável, produto desconfortável.']"/>
   </r>
   <r>
     <x v="33"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - Outros']"/>
   </r>
   <r>
     <x v="34"/>
     <x v="7"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="['Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - Outros']"/>
   </r>
   <r>
     <x v="35"/>
     <x v="8"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - Boa qualidade do material, produto de estética agradável.']"/>
   </r>
   <r>
     <x v="36"/>
     <x v="8"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Neutro - Produto confortável, outros.']"/>
   </r>
   <r>
     <x v="37"/>
     <x v="8"/>
-    <n v="4.5"/>
+    <x v="4"/>
     <x v="16"/>
     <s v="['Positivo - boa qualidade do material, ótimo custo, satisfeito com a compra.', 'Neutro - Produto similar ao anunciado, não alcochoado ou macio, possível durabilidade limitada, ausência de nota fiscal.']"/>
   </r>
   <r>
     <x v="38"/>
     <x v="9"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - boa qualidade do material, produto de estética agradável, produto confortável.']"/>
   </r>
   <r>
     <x v="39"/>
     <x v="8"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Neutro - outras.']"/>
   </r>
   <r>
     <x v="40"/>
     <x v="9"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="18"/>
     <s v="['Positivo - produto de estética agradável, produto confortável.', '[positivo] - entrega rápida, boa qualidade do material', 'Neutro - Boa qualidade do material, entrega rápida.', 'Neutro - entrega rápida, entrega sem danificar o produto.', 'Positivo - boa qualidade do material, estética agradável, confortável.', 'Positivo - Boa qualidade do material, produto confortável.', 'Neutro - outros.', 'Positivo - boa qualidade do material, produto confortável']"/>
   </r>
   <r>
     <x v="41"/>
     <x v="9"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="17"/>
     <s v="['Neutro - outros', 'Positivo - boa qualidade do material.', 'Positivo - Boa qualidade do material.']"/>
   </r>
   <r>
     <x v="42"/>
     <x v="9"/>
-    <n v="4.5"/>
+    <x v="4"/>
     <x v="16"/>
     <s v="['Positivo - confortável, estética agradável.', 'Neutro - outros.']"/>
   </r>
   <r>
     <x v="43"/>
     <x v="9"/>
-    <n v="4"/>
+    <x v="5"/>
     <x v="14"/>
     <s v="[]"/>
   </r>
   <r>
     <x v="44"/>
     <x v="9"/>
-    <n v="4.4000000000000004"/>
+    <x v="6"/>
     <x v="18"/>
     <s v="['Positivo - Boa qualidade do material, produto de estética agradável.', 'Positivo - boa qualidade do material, produto confortável, produto de estética agradável, preço acessível.', 'Neutro - Produto desconfortável, precisa de ajuste.', 'Positivo - Boa qualidade do material, produto confortável, outros.', '[negativo] - produto desconfortável, outros']"/>
   </r>
   <r>
     <x v="45"/>
     <x v="9"/>
-    <n v="3.8"/>
+    <x v="7"/>
     <x v="19"/>
     <s v="['Positivo - boa qualidade do material.', 'Positivo - boa qualidade do material, produto confortável', 'Negativo - Produto de estética desagradável, outros.', 'Negativo - Produto de estética desagradável, entrega danificou o produto.']"/>
   </r>
   <r>
     <x v="46"/>
     <x v="9"/>
-    <n v="4.9000000000000004"/>
+    <x v="2"/>
     <x v="20"/>
     <s v="['Positivo - Confortável, produto de estética agradável', '[classificação] - [positivo, boa qualidade do material, produto de estética agradável]', 'Positivo - Boa qualidade do material, produto de estética agradável, entrega sem danificar o produto.', 'Positivo - produto confortável, fácil de calçar.', 'Positivo - boa qualidade do material, confortável', 'Positivo - boa qualidade do material, produto de estética agradável, produto confortável.', 'Positivo - produto confortável, produto de estética agradável, boa qualidade do material.', 'Positivo - Produto de estética agradável, produto confortável.', 'Negativo - Má qualidade de material, produto de estética desagradável.', 'Neutro - outros.', 'Positivo - produto de estética agradável.', 'Positivo - estética agradável, confortável, boa numeração / Negativo - entrega demorada', 'Positivo - Produto de estética agradável.']"/>
   </r>
   <r>
     <x v="47"/>
     <x v="9"/>
-    <n v="4.8"/>
+    <x v="3"/>
     <x v="15"/>
     <s v="['Positivo - Entrega rápida.', 'Positivo - produto de estética agradável, outros.', '[classificação] - [positivo, produto de estética agradável, outros]', 'Neutro - outros']"/>
   </r>
   <r>
     <x v="48"/>
     <x v="9"/>
-    <n v="5"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="['Positivo - confortável, estética agradável, outros.']"/>
   </r>
   <r>
     <x v="49"/>
     <x v="9"/>
-    <n v="4.7"/>
+    <x v="0"/>
     <x v="21"/>
     <s v="['[classificação] - [positivo, produto de estética agradável, entrega rápida]', 'Neutro - outros.', 'Positivo - outros', 'Positivo - boa qualidade do material, produto confortável.', 'Positivo - Produto de estética agradável, confortável.', 'Neutro - outros', 'Neutro - outros']"/>
   </r>
   <r>
     <x v="50"/>
     <x v="9"/>
-    <n v="4.0999999999999996"/>
+    <x v="8"/>
     <x v="22"/>
     <s v="['Neutro - outros', 'Positivo - Boa qualidade do material, entrega rápida.', '[classificação] - [positivo, produto de estética agradável]', 'Positivo - Boa qualidade do material, entrega rápida', 'Neutro - Confortável.', 'Positivo - Confortável.', 'Neutro - confortável.', 'Neutro - outros.', 'Negativo - Produto desconfortável.', '[negativo] - [produto de estética desagradável, produto desconfortável, outros]']"/>
   </r>
@@ -4293,10 +4949,65 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBEAE37D-9E54-4A7C-9AA7-3E986F211A9C}" name="Tabela dinâmica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBEAE37D-9E54-4A7C-9AA7-3E986F211A9C}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G17:H28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="52">
+        <item x="19"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
         <item x="8"/>
@@ -4312,7 +5023,20 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0">
       <items count="24">
         <item x="14"/>
@@ -4387,8 +5111,35 @@
   <dataFields count="1">
     <dataField name="Contagem de quantidade-de-avaliacoes" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="4">
     <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4411,7 +5162,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EA9DE22-5CEE-4602-84A5-0D28A2AAFF4C}" name="Tabela dinâmica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EA9DE22-5CEE-4602-84A5-0D28A2AAFF4C}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="D17:E28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -4485,7 +5236,20 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="24">
         <item x="14"/>
@@ -4560,8 +5324,17 @@
   <dataFields count="1">
     <dataField name="Média de avaliacao" fld="2" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4584,7 +5357,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F801B29-DB68-458D-ABA3-BBDF28468C64}" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F801B29-DB68-458D-ABA3-BBDF28468C64}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -4658,7 +5431,20 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -4829,8 +5615,17 @@
   <dataFields count="1">
     <dataField name="Média de avaliacao" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4850,6 +5645,132 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_preco" xr10:uid="{20A79DD1-52C1-453C-BA51-29A3FFAE9800}" sourceName="preco">
+  <pivotTables>
+    <pivotTable tabId="2" name="Tabela dinâmica1"/>
+    <pivotTable tabId="2" name="Tabela dinâmica2"/>
+    <pivotTable tabId="2" name="Tabela dinâmica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1955277039">
+      <items count="10">
+        <i x="8" s="1"/>
+        <i x="6" s="1"/>
+        <i x="9" s="1"/>
+        <i x="7" s="1"/>
+        <i x="5" s="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_avaliacao" xr10:uid="{86C433B9-C462-43A2-A04F-AB4ABCF2A3D4}" sourceName="avaliacao">
+  <pivotTables>
+    <pivotTable tabId="2" name="Tabela dinâmica2"/>
+    <pivotTable tabId="2" name="Tabela dinâmica1"/>
+    <pivotTable tabId="2" name="Tabela dinâmica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1955277039">
+      <items count="9">
+        <i x="7" s="1"/>
+        <i x="5" s="1"/>
+        <i x="8" s="1"/>
+        <i x="6" s="1"/>
+        <i x="4" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_nome" xr10:uid="{AB76DCC1-634A-4C19-82C9-670788EA2674}" sourceName="nome">
+  <pivotTables>
+    <pivotTable tabId="2" name="Tabela dinâmica1"/>
+    <pivotTable tabId="2" name="Tabela dinâmica2"/>
+    <pivotTable tabId="2" name="Tabela dinâmica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1955277039">
+      <items count="51">
+        <i x="19" s="1"/>
+        <i x="21" s="1"/>
+        <i x="22" s="1"/>
+        <i x="23" s="1"/>
+        <i x="24" s="1"/>
+        <i x="25" s="1"/>
+        <i x="26" s="1"/>
+        <i x="0" s="1"/>
+        <i x="27" s="1"/>
+        <i x="28" s="1"/>
+        <i x="29" s="1"/>
+        <i x="30" s="1"/>
+        <i x="31" s="1"/>
+        <i x="32" s="1"/>
+        <i x="3" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="33" s="1"/>
+        <i x="34" s="1"/>
+        <i x="35" s="1"/>
+        <i x="36" s="1"/>
+        <i x="37" s="1"/>
+        <i x="38" s="1"/>
+        <i x="39" s="1"/>
+        <i x="40" s="1"/>
+        <i x="41" s="1"/>
+        <i x="42" s="1"/>
+        <i x="43" s="1"/>
+        <i x="44" s="1"/>
+        <i x="18" s="1"/>
+        <i x="17" s="1"/>
+        <i x="16" s="1"/>
+        <i x="10" s="1"/>
+        <i x="9" s="1"/>
+        <i x="14" s="1"/>
+        <i x="8" s="1"/>
+        <i x="12" s="1"/>
+        <i x="13" s="1"/>
+        <i x="7" s="1"/>
+        <i x="11" s="1"/>
+        <i x="15" s="1"/>
+        <i x="45" s="1"/>
+        <i x="46" s="1"/>
+        <i x="47" s="1"/>
+        <i x="48" s="1"/>
+        <i x="49" s="1"/>
+        <i x="50" s="1"/>
+        <i x="4" s="1"/>
+        <i x="6" s="1"/>
+        <i x="5" s="1"/>
+        <i x="20" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="preco" xr10:uid="{E466D171-A973-46B5-85AD-FDA26F3860DC}" cache="SegmentaçãodeDados_preco" caption="preco" rowHeight="241300"/>
+  <slicer name="avaliacao" xr10:uid="{6CB36738-073B-4BB6-A972-6AEF355E194B}" cache="SegmentaçãodeDados_avaliacao" caption="avaliacao" rowHeight="241300"/>
+  <slicer name="nome" xr10:uid="{E39C2C70-FCC5-4369-AB9D-1B8E6097626B}" cache="SegmentaçãodeDados_nome" caption="nome" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5153,8 +6074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E52"/>
+    <sheetView zoomScale="65" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5170,7 +6091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -5187,867 +6108,867 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C2">
         <v>4.7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="D4" s="6">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5" s="6">
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="D6" s="6">
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C7">
         <v>4.8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
+      <c r="D7" s="6">
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="D8" s="6">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
+      <c r="D9" s="6">
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
+      <c r="D10" s="6">
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>89.91</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
+      <c r="D11" s="6">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2">
+        <v>89.91</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
+      <c r="D12" s="6">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="C13">
         <v>4.7</v>
       </c>
-      <c r="D13" t="s">
-        <v>39</v>
+      <c r="D13" s="6">
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>69.91</v>
+      </c>
+      <c r="C14">
         <v>4.7</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
+      <c r="D14" s="6">
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>69.91</v>
+      </c>
+      <c r="C15">
         <v>4.7</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
+      <c r="D15" s="6">
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>69.91</v>
+      </c>
+      <c r="C16">
         <v>4.7</v>
       </c>
-      <c r="D16" t="s">
-        <v>49</v>
+      <c r="D16" s="6">
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>69.91</v>
+      </c>
+      <c r="C17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D17" t="s">
-        <v>43</v>
+      <c r="D17" s="6">
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>80.91</v>
+      </c>
+      <c r="C18">
         <v>4.8</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
+      <c r="D18" s="6">
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2">
+        <v>80.91</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
+      <c r="D19" s="6">
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="3">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>80.91</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>59</v>
+      <c r="D20" s="6">
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="3">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="C21">
         <v>4.5</v>
       </c>
-      <c r="D21" t="s">
-        <v>63</v>
+      <c r="D21" s="6">
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2">
+        <v>88.78</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
+      <c r="D23" s="6">
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
         <v>88.78</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2">
         <v>88.78</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2">
         <v>88.78</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2">
         <v>99.9</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2">
         <v>99.9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>4.5</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2">
         <v>99.9</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2">
         <v>99.9</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>99.9</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>4.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2">
         <v>99.9</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2">
         <v>88.78</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>4.5</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2">
         <v>88.78</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2">
         <v>99.9</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2">
         <v>99.9</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2">
         <v>80</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2">
         <v>80</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2">
         <v>80</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>4.5</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2">
         <v>99.89</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2">
         <v>80</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2">
         <v>99.89</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2">
         <v>99.89</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>4.7</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2">
         <v>99.89</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>4.5</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2">
         <v>99.89</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2">
         <v>99.89</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2">
         <v>99.89</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>3.8</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2">
         <v>99.89</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2">
         <v>99.89</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>4.8</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2">
         <v>99.89</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2">
         <v>99.89</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>4.7</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2">
         <v>99.89</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6062,14 +6983,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D280F6-02CF-4460-9D2A-D96594F16728}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="60" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
@@ -6078,575 +6999,599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>124</v>
+      <c r="A1" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6">
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.875</v>
+      </c>
+      <c r="G18" s="4">
+        <v>80</v>
+      </c>
+      <c r="H18" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="D19" s="4">
+        <v>88.78</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="G19" s="4">
+        <v>88.78</v>
+      </c>
+      <c r="H19" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="D20" s="4">
+        <v>99.89</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="G20" s="4">
+        <v>99.89</v>
+      </c>
+      <c r="H20" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="D21" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.875</v>
+      </c>
+      <c r="G21" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="6">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="G27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.7745098039215685</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="6">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="6">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
-        <v>80</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.875</v>
-      </c>
-      <c r="G18" s="5">
-        <v>80</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="6">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
-        <v>88.78</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.7799999999999994</v>
-      </c>
-      <c r="G19" s="5">
-        <v>88.78</v>
-      </c>
-      <c r="H19" s="3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5">
-        <v>99.89</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.5750000000000002</v>
-      </c>
-      <c r="G20" s="5">
-        <v>99.89</v>
-      </c>
-      <c r="H20" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
-        <v>99.9</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.875</v>
-      </c>
-      <c r="G21" s="5">
-        <v>99.9</v>
-      </c>
-      <c r="H21" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4.9333333333333336</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4.7745098039215685</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5</v>
-      </c>
-    </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="3">
+      <c r="A53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="6">
         <v>4.7745098039215694</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F83A68E-8518-46EC-A08F-DFDB3F398240}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>